--- a/MY_PGMB/py/my9_stock_sData.xlsx
+++ b/MY_PGMB/py/my9_stock_sData.xlsx
@@ -11,6 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="sAccount">sData!$N$1:$P$3</definedName>
+    <definedName name="sPrice">sData!$I$1:$K$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -486,7 +487,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:P3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/MY_PGMB/py/my9_stock_sData.xlsx
+++ b/MY_PGMB/py/my9_stock_sData.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="현재_통합_문서" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -10,8 +10,7 @@
     <sheet name="sData" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="sAccount">sData!$N$1:$P$3</definedName>
-    <definedName name="sPrice">sData!$I$1:$K$3</definedName>
+    <definedName name="my9_stock_out_all" localSheetId="0">sData!$J$3:$L$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,8 +21,22 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="my9_stock_out_all" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="949" sourceFile="D:\MY_BLOG_LOCAL_HOME\py\my9_stock_out_all.txt" comma="1">
+      <textFields count="3">
+        <textField type="text"/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>sCode</t>
   </si>
@@ -47,59 +60,130 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>종목정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정날짜정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>미래 A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격투자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성 B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의료비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saAccount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예수금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saAmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>계좌정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aDesc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aTax</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미래 A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격투자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성 B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>의료비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spDescK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spDeskE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>siName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전자</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +212,25 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -171,37 +274,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -218,6 +333,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="my9_stock_out_all" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,130 +602,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="3.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="3.625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="7.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="2.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="3">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3">
         <v>6</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="H1" s="3">
         <v>7</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="3">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3">
+        <f>INT(MATCH(A2,$1:$1,FALSE))</f>
+        <v>17</v>
+      </c>
+      <c r="E2" s="3">
+        <f>INT(COUNTIF($1:$1,A2))</f>
+        <v>3</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3">
+        <f>INT(MATCH(A3,$1:$1,FALSE))</f>
+        <v>14</v>
+      </c>
+      <c r="E3" s="3">
+        <f>INT(COUNTIF($1:$1,A3))</f>
+        <v>2</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I4" s="5"/>
+      <c r="J4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="10">
+        <v>2731.9</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I5" s="5"/>
+      <c r="J5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12">
+        <v>80900</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="6">
-        <v>2731.9</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="9">
-        <v>80900</v>
-      </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="S5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I6" s="5"/>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I7" s="5"/>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I8" s="5"/>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I9" s="5"/>
+      <c r="N9" s="4"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N11" s="14"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:C7"/>
-    <mergeCell ref="H1:H7"/>
-    <mergeCell ref="M1:M7"/>
+  <mergeCells count="1">
+    <mergeCell ref="I3:I9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
